--- a/exampleSim_ebsilon/results.xlsx
+++ b/exampleSim_ebsilon/results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -39,6 +39,87 @@
   </si>
   <si>
     <t>eff</t>
+  </si>
+  <si>
+    <t>Compressor</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>HPSH</t>
+  </si>
+  <si>
+    <t>HPEV</t>
+  </si>
+  <si>
+    <t>HPEC</t>
+  </si>
+  <si>
+    <t>IPSH</t>
+  </si>
+  <si>
+    <t>IPEV</t>
+  </si>
+  <si>
+    <t>IPEC</t>
+  </si>
+  <si>
+    <t>LPSH</t>
+  </si>
+  <si>
+    <t>LPEV</t>
+  </si>
+  <si>
+    <t>LPEC</t>
+  </si>
+  <si>
+    <t>HPST</t>
+  </si>
+  <si>
+    <t>IPST</t>
+  </si>
+  <si>
+    <t>LPST</t>
+  </si>
+  <si>
+    <t>Mixer1</t>
+  </si>
+  <si>
+    <t>Mixer2</t>
+  </si>
+  <si>
+    <t>COND_P</t>
+  </si>
+  <si>
+    <t>LPP</t>
+  </si>
+  <si>
+    <t>HPP</t>
+  </si>
+  <si>
+    <t>IPP</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Deaerator</t>
+  </si>
+  <si>
+    <t>Mixer_fg</t>
+  </si>
+  <si>
+    <t>COND</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
   <si>
     <t>Exergy table</t>
@@ -429,40 +510,499 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>242.6751767676768</v>
+      </c>
+      <c r="C3" t="n">
+        <v>231.29750211</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.37767465767675</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.3115622251842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>729.62306254</v>
+      </c>
+      <c r="C4" t="n">
+        <v>508.75784892</v>
+      </c>
+      <c r="D4" t="n">
+        <v>220.86521362</v>
+      </c>
+      <c r="E4" t="n">
+        <v>69.72886070087847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>551.14816612</v>
+      </c>
+      <c r="C5" t="n">
+        <v>533.0420251689768</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.10614095102324</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.71483240550582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>26.46814633</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23.8927242</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.575422129999993</v>
+      </c>
+      <c r="E6" t="n">
+        <v>90.26972989385014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>35.0711451</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31.72293997</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.348205129999997</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90.4531057641457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>43.63694193000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>39.90986810999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.727073820000015</v>
+      </c>
+      <c r="E8" t="n">
+        <v>91.45890235393034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>28.91557855</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24.91322217</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.002356379999998</v>
+      </c>
+      <c r="E9" t="n">
+        <v>86.15847726138615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1786983499999977</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.708503370000001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5.529805020000003</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3194.491370513536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.10005151</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.08293121000000014</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.0171203</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.359516552672522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.060912330000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8749222899999999</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1859900400000009</v>
+      </c>
+      <c r="E12" t="n">
+        <v>82.46885866620094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.425154370000001</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.044163820000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3809905499999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>73.26671706448197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19.02593679</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15.47887644</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.547060349999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>81.35671116144816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11.49407404</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.70921542</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.784858619999998</v>
+      </c>
+      <c r="E15" t="n">
+        <v>67.07121768288175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="n">
+        <v>31.28801362</v>
+      </c>
+      <c r="C16" t="n">
+        <v>29.17520860319997</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.112805016800028</v>
+      </c>
+      <c r="E16" t="n">
+        <v>93.24723824765444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="n">
+        <v>37.39347669</v>
+      </c>
+      <c r="C17" t="n">
+        <v>35.21163771675006</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.181838973249938</v>
+      </c>
+      <c r="E17" t="n">
+        <v>94.16518824569896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n">
+        <v>70.99194165</v>
+      </c>
+      <c r="C18" t="n">
+        <v>61.35051396375006</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9.641427686249941</v>
+      </c>
+      <c r="E18" t="n">
+        <v>86.41898296882272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.806461909919977</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.626947519919981</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1795143899999956</v>
+      </c>
+      <c r="E19" t="n">
+        <v>90.06265291207011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6257292775273821</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5813357475273766</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.04439353000000545</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.90531359257635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.04462062347877414</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03515015000000005</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.009470473478774097</v>
+      </c>
+      <c r="E21" t="n">
+        <v>78.77556891763477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-62.28111802341756</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-14.90192668</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-47.37919134341756</v>
+      </c>
+      <c r="E22" t="n">
+        <v>23.92687728309069</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-149.3804034271936</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-41.34904152</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-108.0313619071936</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27.68036541028159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-18.30905227520241</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.66802703</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-13.64102524520241</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25.49573271098431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.02075239685323293</v>
+      </c>
+      <c r="C26" t="n">
+        <v>61.89210377585943</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-61.87135137900619</v>
+      </c>
+      <c r="E26" t="n">
+        <v>298240.7488329114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1781731200797766</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1780290948157141</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0001440252640624862</v>
+      </c>
+      <c r="E27" t="n">
+        <v>99.91916554865404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.42752852</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>11.42752852</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.046652223655489</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="n">
+        <v>730.57957413</v>
+      </c>
+      <c r="C29" t="n">
+        <v>476.9880537650001</v>
+      </c>
+      <c r="D29" t="n">
+        <v>253.5915203649999</v>
+      </c>
+      <c r="E29" t="n">
+        <v>65.28899392417512</v>
+      </c>
+    </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2038,40 +2578,499 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>240.8711595959596</v>
+      </c>
+      <c r="C3" t="n">
+        <v>229.57806541</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.2930941859596</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.3115623286313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>724.19912031</v>
+      </c>
+      <c r="C4" t="n">
+        <v>504.97581767</v>
+      </c>
+      <c r="D4" t="n">
+        <v>219.22330264</v>
+      </c>
+      <c r="E4" t="n">
+        <v>69.72886372104961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>547.0510077399999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>529.0794656899096</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.97154205009031</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.71483247525032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>26.27138473000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23.71510748</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.556277250000008</v>
+      </c>
+      <c r="E6" t="n">
+        <v>90.26972778073275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>34.81043217</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31.48711507</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.323317099999997</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90.45310014029626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>43.31253975</v>
+      </c>
+      <c r="C8" t="n">
+        <v>39.61318248</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.69935727</v>
+      </c>
+      <c r="E8" t="n">
+        <v>91.45892323250335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>28.70063544000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24.72801997</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.972615470000004</v>
+      </c>
+      <c r="E9" t="n">
+        <v>86.15844071360392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1773699299999976</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.66606732</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5.488697390000002</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3194.491490186683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.05470459</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.08231471000000012</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.97238988</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.359516534232765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.053025650000002</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8684182699999999</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1846073800000022</v>
+      </c>
+      <c r="E12" t="n">
+        <v>82.46886198830941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.414559969999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.036401910000002</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.378158059999997</v>
+      </c>
+      <c r="E13" t="n">
+        <v>73.26673537920084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="n">
+        <v>18.88450064</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15.36380797</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.520692670000003</v>
+      </c>
+      <c r="E14" t="n">
+        <v>81.35670761374179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11.40862871</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.65190606</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.756722649999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>67.07121648452701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="n">
+        <v>31.05541353</v>
+      </c>
+      <c r="C16" t="n">
+        <v>28.95841910609999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.096994423900004</v>
+      </c>
+      <c r="E16" t="n">
+        <v>93.24757204770667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="n">
+        <v>37.11549633</v>
+      </c>
+      <c r="C17" t="n">
+        <v>34.94987722709998</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.165619102900017</v>
+      </c>
+      <c r="E17" t="n">
+        <v>94.16518889133224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n">
+        <v>70.64655983</v>
+      </c>
+      <c r="C18" t="n">
+        <v>63.93901550850013</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.707544321499867</v>
+      </c>
+      <c r="E18" t="n">
+        <v>90.50549051837693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.793031367699354</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.614854587699349</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1781767800000047</v>
+      </c>
+      <c r="E19" t="n">
+        <v>90.06281857586104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6210764372751894</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.577012386841014</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.04406405043417538</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.90521298352665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0442882887100451</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03488884999999997</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.00939943871004513</v>
+      </c>
+      <c r="E21" t="n">
+        <v>78.77669473394391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-61.81812710214195</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-14.7911472</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-47.02697990214195</v>
+      </c>
+      <c r="E22" t="n">
+        <v>23.92687694268159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-148.2699259450616</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-41.04165722</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-107.2282687250616</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27.68036535959906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-18.1729461622236</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.63332572</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-13.5396204422236</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25.4957323850514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.02060258493228825</v>
+      </c>
+      <c r="C26" t="n">
+        <v>61.43199693592657</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-61.41139435099428</v>
+      </c>
+      <c r="E26" t="n">
+        <v>298176.1615730593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1768490480433374</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.176706082779258</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0001429652640794199</v>
+      </c>
+      <c r="E27" t="n">
+        <v>99.91915972086862</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.15278028</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>11.15278028</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.22856973433243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="n">
+        <v>725.14852131</v>
+      </c>
+      <c r="C29" t="n">
+        <v>476.4868592256502</v>
+      </c>
+      <c r="D29" t="n">
+        <v>248.6616620843498</v>
+      </c>
+      <c r="E29" t="n">
+        <v>65.70886449094098</v>
+      </c>
+    </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3647,40 +4646,499 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>229.395201010101</v>
+      </c>
+      <c r="C3" t="n">
+        <v>223.19581692</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.199384090101006</v>
+      </c>
+      <c r="E3" t="n">
+        <v>97.29750924918955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>724.18833505</v>
+      </c>
+      <c r="C4" t="n">
+        <v>502.19428614</v>
+      </c>
+      <c r="D4" t="n">
+        <v>221.9940489099999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>69.34581266147116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>542.00750993</v>
+      </c>
+      <c r="C5" t="n">
+        <v>523.7547318507509</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.25277807924908</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.63237542933558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25.58672722</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23.02776326</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.55896396</v>
+      </c>
+      <c r="E6" t="n">
+        <v>89.99886176142226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>32.76604639</v>
+      </c>
+      <c r="C7" t="n">
+        <v>29.62454270000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.141503689999993</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90.41231995887438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>41.92076091000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>38.39882031</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.521940600000015</v>
+      </c>
+      <c r="E8" t="n">
+        <v>91.5985766394811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>27.89443873</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23.96997</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.924468729999997</v>
+      </c>
+      <c r="E9" t="n">
+        <v>85.9309994799096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2272284199999959</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.38817668</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-6.160948260000004</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2811.345816689706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.810523310000001</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.09243175000000003</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.71809156</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.357190127582135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.180548190000003</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.97515485</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2053933400000032</v>
+      </c>
+      <c r="E12" t="n">
+        <v>82.60186735790916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.397529459999994</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.02309648</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3744329799999946</v>
+      </c>
+      <c r="E13" t="n">
+        <v>73.20750719630654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="n">
+        <v>18.77369107</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15.28232508</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.491365990000002</v>
+      </c>
+      <c r="E14" t="n">
+        <v>81.40287929005534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11.29387344</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.553026969999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.740846470000003</v>
+      </c>
+      <c r="E15" t="n">
+        <v>66.8772056825882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="n">
+        <v>29.69874008000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>27.67974196680005</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.018998113199959</v>
+      </c>
+      <c r="E16" t="n">
+        <v>93.20173816208583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="n">
+        <v>36.15472129</v>
+      </c>
+      <c r="C17" t="n">
+        <v>34.03210602825001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.122615261749985</v>
+      </c>
+      <c r="E17" t="n">
+        <v>94.12907862095156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n">
+        <v>69.09757119</v>
+      </c>
+      <c r="C18" t="n">
+        <v>59.71331512575</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9.384256064249996</v>
+      </c>
+      <c r="E18" t="n">
+        <v>86.4188336831033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.65784251285387</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.498924392853867</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1589181200000027</v>
+      </c>
+      <c r="E19" t="n">
+        <v>90.41416064747698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5975417356821823</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.559575035682188</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.03796669999999425</v>
+      </c>
+      <c r="E20" t="n">
+        <v>93.64618440306104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.04371606440746138</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03443801000000002</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.009278054407461357</v>
+      </c>
+      <c r="E21" t="n">
+        <v>78.7765560939246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-61.49027008572941</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-14.71270145</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-46.77756863572941</v>
+      </c>
+      <c r="E22" t="n">
+        <v>23.92687725958535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-143.7246361835874</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-39.78350443999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-103.9411317435874</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27.68036538230115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-20.40656872958</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-5.202803960000001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-15.20376476958</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25.49573144287782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0203370969076458</v>
+      </c>
+      <c r="C26" t="n">
+        <v>60.63816524790164</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-60.61782815099399</v>
+      </c>
+      <c r="E26" t="n">
+        <v>298165.296272471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6590769481530557</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.6571550581530778</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.001921889999977888</v>
+      </c>
+      <c r="E27" t="n">
+        <v>99.70839671978156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.14065317</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>11.14065317</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.236789124913285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="n">
+        <v>725.13772189</v>
+      </c>
+      <c r="C29" t="n">
+        <v>475.44926580145</v>
+      </c>
+      <c r="D29" t="n">
+        <v>249.68845608855</v>
+      </c>
+      <c r="E29" t="n">
+        <v>65.56675393499573</v>
+      </c>
+    </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -5256,40 +6714,499 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>224.4335909090909</v>
+      </c>
+      <c r="C3" t="n">
+        <v>218.36828538</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.065305529090921</v>
+      </c>
+      <c r="E3" t="n">
+        <v>97.29750546496949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>721.44077755</v>
+      </c>
+      <c r="C4" t="n">
+        <v>501.45084976</v>
+      </c>
+      <c r="D4" t="n">
+        <v>219.98992779</v>
+      </c>
+      <c r="E4" t="n">
+        <v>69.50686256783519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>535.7118598500001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>517.7233773239909</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.98848252600919</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.6421347231241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25.76510843</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23.26119517000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.50391325999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>90.28176703854069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>34.19196164</v>
+      </c>
+      <c r="C7" t="n">
+        <v>30.92841010000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.263551539999995</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90.45520823180242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>42.49134151</v>
+      </c>
+      <c r="C8" t="n">
+        <v>38.85960106</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.631740450000002</v>
+      </c>
+      <c r="E8" t="n">
+        <v>91.45298707703709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>28.15107123999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24.25760645</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.893464789999996</v>
+      </c>
+      <c r="E9" t="n">
+        <v>86.16939029848444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1716202700000053</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.5176695</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5.346049229999995</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3215.04534400268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.896777069999999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.08017384000000005</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.816603229999998</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.359621349904619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.025718489999996</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.84583221</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1798862799999956</v>
+      </c>
+      <c r="E12" t="n">
+        <v>82.46241227454169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.386389919999999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.015808400000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3705815199999982</v>
+      </c>
+      <c r="E13" t="n">
+        <v>73.27003646997099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="n">
+        <v>18.50320235</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15.05326237</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.449939980000002</v>
+      </c>
+      <c r="E14" t="n">
+        <v>81.3549032500312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11.18056106</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.50010181</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.680459250000002</v>
+      </c>
+      <c r="E15" t="n">
+        <v>67.08162291454806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="n">
+        <v>30.48273569</v>
+      </c>
+      <c r="C16" t="n">
+        <v>28.42497305010006</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.057762639899934</v>
+      </c>
+      <c r="E16" t="n">
+        <v>93.24941612581382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="n">
+        <v>36.40086239</v>
+      </c>
+      <c r="C17" t="n">
+        <v>34.27752202875001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.123340361249994</v>
+      </c>
+      <c r="E17" t="n">
+        <v>94.16678555991214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n">
+        <v>69.08665332999999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>59.70403072260005</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9.382622607399938</v>
+      </c>
+      <c r="E18" t="n">
+        <v>86.41905179198244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.762350003166973</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.586953693166963</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.17539631000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>90.04758931626409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.608919149063083</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5655145090630718</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.04340464000001121</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.87185497995982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.04340947388131852</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03419670000000002</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.009212773881318498</v>
+      </c>
+      <c r="E21" t="n">
+        <v>78.77704321755611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-60.56861391396708</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-14.49217808</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-46.07643583396708</v>
+      </c>
+      <c r="E22" t="n">
+        <v>23.92687754186515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-145.4493132696116</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-40.2609012</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-105.1884120696116</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27.68036527293225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-17.70030067711539</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.51282094</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-13.18747973711539</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25.4957303964593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.02019242587364115</v>
+      </c>
+      <c r="C26" t="n">
+        <v>60.21326764587364</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-60.19307522</v>
+      </c>
+      <c r="E26" t="n">
+        <v>298197.2944839433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1510444910069206</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1509480553508066</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9.643565611394678e-05</v>
+      </c>
+      <c r="E27" t="n">
+        <v>99.93615413877654</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.09198004</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>11.09198004</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.269944183599563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="n">
+        <v>722.36942686</v>
+      </c>
+      <c r="C29" t="n">
+        <v>474.9280157363501</v>
+      </c>
+      <c r="D29" t="n">
+        <v>247.4414111236499</v>
+      </c>
+      <c r="E29" t="n">
+        <v>65.74586327674058</v>
+      </c>
+    </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -6865,40 +8782,499 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>234.1728393939394</v>
+      </c>
+      <c r="C3" t="n">
+        <v>223.1937917</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.97904769393944</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.31156229631318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>712.72454607</v>
+      </c>
+      <c r="C4" t="n">
+        <v>506.84427997</v>
+      </c>
+      <c r="D4" t="n">
+        <v>205.8802661</v>
+      </c>
+      <c r="E4" t="n">
+        <v>71.11362766510085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>540.55226105</v>
+      </c>
+      <c r="C5" t="n">
+        <v>522.8802155560893</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.67204549391067</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.73074247074955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>26.68388176000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>24.21364775000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.470234009999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>90.74259872601085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>37.50363956</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33.95229011999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.55134944000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90.53065387342366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>44.49868146</v>
+      </c>
+      <c r="C8" t="n">
+        <v>40.58881586</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.909865599999996</v>
+      </c>
+      <c r="E8" t="n">
+        <v>91.21352482429263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>29.27052764</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.33704657</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.933481069999996</v>
+      </c>
+      <c r="E9" t="n">
+        <v>86.5616325117944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1011454300000025</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.27364042</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-4.172494989999997</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4225.243216623719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.589592570000001</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.06253578999999987</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.527056780000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.36255645890589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8029508300000003</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.65975163</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1431992000000003</v>
+      </c>
+      <c r="E12" t="n">
+        <v>82.16588181370953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.404889049999994</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.030770660000002</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3741183899999925</v>
+      </c>
+      <c r="E13" t="n">
+        <v>73.37025368658159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="n">
+        <v>18.55047255</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15.076861</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.473611550000003</v>
+      </c>
+      <c r="E14" t="n">
+        <v>81.27480827974918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11.28417071</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.607070869999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.67709984</v>
+      </c>
+      <c r="E15" t="n">
+        <v>67.41364576537853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="n">
+        <v>32.57429327</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30.40062109919992</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.173672170800074</v>
+      </c>
+      <c r="E16" t="n">
+        <v>93.3270319856733</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="n">
+        <v>37.7551591</v>
+      </c>
+      <c r="C17" t="n">
+        <v>35.5758494157</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.179309684300001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>94.22778307322773</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n">
+        <v>70.88733880999999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>61.2599849383498</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9.627353871650186</v>
+      </c>
+      <c r="E18" t="n">
+        <v>86.41879631360619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.986252511284459</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.77733109128445</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.2089214200000085</v>
+      </c>
+      <c r="E19" t="n">
+        <v>89.48162840257888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5992389881611387</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5492447481611409</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.04999423999999786</v>
+      </c>
+      <c r="E20" t="n">
+        <v>91.65704485393829</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.04402850589769532</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03468441999999999</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.00934408589769533</v>
+      </c>
+      <c r="E21" t="n">
+        <v>78.77719057874174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-60.6635611865564</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-14.51489571</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-46.1486654765564</v>
+      </c>
+      <c r="E22" t="n">
+        <v>23.92687706770606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-151.9216675277707</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-42.05247252</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-109.8691950077707</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27.68036528582268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-13.80628699275534</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.52001367</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-10.28627332275534</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25.49573011083341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0204774027197946</v>
+      </c>
+      <c r="C26" t="n">
+        <v>61.07205524172606</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-61.05157783900627</v>
+      </c>
+      <c r="E26" t="n">
+        <v>298241.2177824212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.7361527923902718</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.7385337570793272</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.002380964689055465</v>
+      </c>
+      <c r="E27" t="n">
+        <v>100.3234334928384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.32559338</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>11.32559338</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.113199658384318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="n">
+        <v>713.6475454399999</v>
+      </c>
+      <c r="C29" t="n">
+        <v>475.9965290953997</v>
+      </c>
+      <c r="D29" t="n">
+        <v>237.6510163446002</v>
+      </c>
+      <c r="E29" t="n">
+        <v>66.69910548097292</v>
+      </c>
+    </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -8474,40 +10850,499 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>243.5004424242425</v>
+      </c>
+      <c r="C3" t="n">
+        <v>232.08405261</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.41638981424245</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.31155274274529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>717.78807783</v>
+      </c>
+      <c r="C4" t="n">
+        <v>508.42124376</v>
+      </c>
+      <c r="D4" t="n">
+        <v>209.36683407</v>
+      </c>
+      <c r="E4" t="n">
+        <v>70.83166459061944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>552.12717445</v>
+      </c>
+      <c r="C5" t="n">
+        <v>533.9906121951424</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.13656225485761</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.7151476880441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>26.44719842</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23.86837317</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.578825250000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>90.24915528273939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>34.95086008</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31.61295133</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.337908749999997</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90.44970927078829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>43.57862212000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>39.86103530999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.717586810000014</v>
+      </c>
+      <c r="E8" t="n">
+        <v>91.46924196051197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>28.88644779</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24.88273892</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.003708869999997</v>
+      </c>
+      <c r="E9" t="n">
+        <v>86.13983657974723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1826945500000008</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.77356973</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5.590875179999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3160.230959270529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.168416690000001</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.08384944000000005</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.084567250000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.359334886307754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.072518539999997</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.88460961</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1879089299999972</v>
+      </c>
+      <c r="E12" t="n">
+        <v>82.47965671530511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.425631270000004</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.044444420000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3811868500000024</v>
+      </c>
+      <c r="E13" t="n">
+        <v>73.26189050272436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19.04174548</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15.49236164</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.549383839999994</v>
+      </c>
+      <c r="E14" t="n">
+        <v>81.35998696270782</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11.49955591</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.710849710000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.788706200000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>67.05345641473558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="n">
+        <v>31.21774151</v>
+      </c>
+      <c r="C16" t="n">
+        <v>29.10870824895003</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.109033261049969</v>
+      </c>
+      <c r="E16" t="n">
+        <v>93.24411966069236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="n">
+        <v>37.36298364</v>
+      </c>
+      <c r="C17" t="n">
+        <v>35.18190051749998</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.18108312250002</v>
+      </c>
+      <c r="E17" t="n">
+        <v>94.1624492746211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n">
+        <v>70.97093206</v>
+      </c>
+      <c r="C18" t="n">
+        <v>61.33225135454983</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9.638680705450163</v>
+      </c>
+      <c r="E18" t="n">
+        <v>86.41883313959937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.798193944731566</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.619967604731572</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1782263399999939</v>
+      </c>
+      <c r="E19" t="n">
+        <v>90.08859191622962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6254820392498115</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5814526092498025</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.04402943000000903</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.96072033454121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.04462998502153276</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03515760000000001</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.009472385021532748</v>
+      </c>
+      <c r="E21" t="n">
+        <v>78.77573784315057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-62.33538300078389</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-14.91491065</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-47.4204723507839</v>
+      </c>
+      <c r="E22" t="n">
+        <v>23.9268773720576</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-149.1976255058987</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-41.29844778</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-107.8991777258987</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27.68036531410296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-18.51177494199536</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.71971239</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-13.79206255199536</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25.49573125639603</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.02076052250089293</v>
+      </c>
+      <c r="C26" t="n">
+        <v>61.90522100250089</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-61.88446047999999</v>
+      </c>
+      <c r="E26" t="n">
+        <v>298187.2012124853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2175956116999862</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2173924218628064</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0002031898371798735</v>
+      </c>
+      <c r="E27" t="n">
+        <v>99.90662043430359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.4274187</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>11.4274187</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.046723331209561</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="n">
+        <v>718.74763222</v>
+      </c>
+      <c r="C29" t="n">
+        <v>477.0109431118998</v>
+      </c>
+      <c r="D29" t="n">
+        <v>241.7366891081002</v>
+      </c>
+      <c r="E29" t="n">
+        <v>66.3669585440655</v>
+      </c>
+    </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -10083,40 +12918,499 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>231.9285676767677</v>
+      </c>
+      <c r="C3" t="n">
+        <v>221.05474206</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.87382561676768</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.31156263944068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>709.36411879</v>
+      </c>
+      <c r="C4" t="n">
+        <v>506.33900042</v>
+      </c>
+      <c r="D4" t="n">
+        <v>203.02511837</v>
+      </c>
+      <c r="E4" t="n">
+        <v>71.37927997876314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>537.74667989</v>
+      </c>
+      <c r="C5" t="n">
+        <v>520.1893202631677</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.55735962683229</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.73501291901536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>26.73023616999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>24.28986811</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.44036805999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>90.8703834695674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>38.16948819</v>
+      </c>
+      <c r="C7" t="n">
+        <v>34.56373572999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.605752460000005</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90.55331200132603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>44.72012378999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>40.76094937000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.959174419999982</v>
+      </c>
+      <c r="E8" t="n">
+        <v>91.1467722258736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>29.35712288000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.44449871</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.912624170000008</v>
+      </c>
+      <c r="E9" t="n">
+        <v>86.67231735891413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.08404623999999927</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.899319</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-3.81527276</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4639.492498415198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.194615329999998</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05717259999999991</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.137442729999998</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.362999834361449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7350379000000018</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6031703100000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1318675900000017</v>
+      </c>
+      <c r="E12" t="n">
+        <v>82.05975637446703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.399569999999997</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.027257000000002</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3723129999999948</v>
+      </c>
+      <c r="E13" t="n">
+        <v>73.39804368484639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="n">
+        <v>18.42475906</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14.97054699</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.454212070000002</v>
+      </c>
+      <c r="E14" t="n">
+        <v>81.25233519335909</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11.22737918</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.57929303</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.64808615</v>
+      </c>
+      <c r="E15" t="n">
+        <v>67.5072330638075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="n">
+        <v>32.91927344999999</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30.72964353525002</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.189629914749972</v>
+      </c>
+      <c r="E16" t="n">
+        <v>93.34848650874471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="n">
+        <v>37.85114242</v>
+      </c>
+      <c r="C17" t="n">
+        <v>35.67267498464999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.178467435350008</v>
+      </c>
+      <c r="E17" t="n">
+        <v>94.24464548209002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n">
+        <v>70.8617931</v>
+      </c>
+      <c r="C18" t="n">
+        <v>61.23780027585016</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9.623992824149838</v>
+      </c>
+      <c r="E18" t="n">
+        <v>86.41864338576858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.035504477573917</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.818337407573909</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.2171670700000075</v>
+      </c>
+      <c r="E19" t="n">
+        <v>89.33104434833544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.581373093181113</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5309651231810997</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.05040797000001329</v>
+      </c>
+      <c r="E20" t="n">
+        <v>91.32949725550682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.04386818947755494</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03455776999999999</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.009310419477554954</v>
+      </c>
+      <c r="E21" t="n">
+        <v>78.77637625706298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-60.2358002680626</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-14.41254579</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-45.8232544780626</v>
+      </c>
+      <c r="E22" t="n">
+        <v>23.92687691681856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-152.5659530267804</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-42.23081327</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-110.3351397567804</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27.68036539750587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-12.62223708508926</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.21813185</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-9.404105235089261</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25.49573287449657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.02040488019995354</v>
+      </c>
+      <c r="C26" t="n">
+        <v>60.84904168019995</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-60.8286368</v>
+      </c>
+      <c r="E26" t="n">
+        <v>298208.2770588308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.992935627802554</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.9972766078025757</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.004340980000021699</v>
+      </c>
+      <c r="E27" t="n">
+        <v>100.437186447789</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.29773307</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>11.29773307</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.131579977447014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="n">
+        <v>710.27827229</v>
+      </c>
+      <c r="C29" t="n">
+        <v>475.7278045221502</v>
+      </c>
+      <c r="D29" t="n">
+        <v>234.5504677678498</v>
+      </c>
+      <c r="E29" t="n">
+        <v>66.97766538575954</v>
+      </c>
+    </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -11692,40 +14986,499 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>243.720195959596</v>
+      </c>
+      <c r="C3" t="n">
+        <v>232.29350372</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.42669223959598</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.3115529902617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>715.75862594</v>
+      </c>
+      <c r="C4" t="n">
+        <v>508.33433</v>
+      </c>
+      <c r="D4" t="n">
+        <v>207.42429594</v>
+      </c>
+      <c r="E4" t="n">
+        <v>71.02035680428001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>552.3888435199999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>534.2441810070459</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.14466251295403</v>
+      </c>
+      <c r="E5" t="n">
+        <v>96.71523733221504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>26.44163876</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23.86186968</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.579769080000005</v>
+      </c>
+      <c r="E6" t="n">
+        <v>90.24353557124232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>34.91888408999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31.58365958</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.335224509999989</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90.44865093224693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>43.56312366</v>
+      </c>
+      <c r="C8" t="n">
+        <v>39.84800763</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.715116030000004</v>
+      </c>
+      <c r="E8" t="n">
+        <v>91.47187869493561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>28.87871188999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>24.87460656</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.004105329999994</v>
+      </c>
+      <c r="E9" t="n">
+        <v>86.13475093608133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1837780800000033</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.79093838</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5.607160299999997</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3151.049559338032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.186665920000003</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.08409445999999998</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.102571460000003</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.359285616637918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.075615569999997</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.88719462</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1884209499999965</v>
+      </c>
+      <c r="E12" t="n">
+        <v>82.48250069492792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.425767229999998</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.044519619999999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3812476099999991</v>
+      </c>
+      <c r="E13" t="n">
+        <v>73.26017866184232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19.04599094</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15.49596417</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.550026770000002</v>
+      </c>
+      <c r="E14" t="n">
+        <v>81.3607662568803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11.50103471</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.711286879999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.78974783</v>
+      </c>
+      <c r="E15" t="n">
+        <v>67.04863583530563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="n">
+        <v>31.19901635000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>29.09096051895005</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.10805583104996</v>
+      </c>
+      <c r="E16" t="n">
+        <v>93.24319777456715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="n">
+        <v>37.35486446</v>
+      </c>
+      <c r="C17" t="n">
+        <v>35.1739862001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.180878259899998</v>
+      </c>
+      <c r="E17" t="n">
+        <v>94.16172889012807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n">
+        <v>70.9653605</v>
+      </c>
+      <c r="C18" t="n">
+        <v>61.32749262255009</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9.637867877449914</v>
+      </c>
+      <c r="E18" t="n">
+        <v>86.4189122558605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.795986268691783</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.618109928691808</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1778763399999754</v>
+      </c>
+      <c r="E19" t="n">
+        <v>90.09589643858789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6254010258865813</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5814710258865813</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.04393000000000002</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.9757070772751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.04463232540722241</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03515959999999996</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.009472725407222451</v>
+      </c>
+      <c r="E21" t="n">
+        <v>78.77608813613467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-62.34987229092381</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-14.9183775</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-47.43149479092381</v>
+      </c>
+      <c r="E22" t="n">
+        <v>23.92687739662243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-149.1488633428054</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-41.28495031</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-107.8639130328054</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27.68036536430733</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-18.56586841233012</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.733504310000001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-13.83236410233012</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25.49573337951887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.02075951234099508</v>
+      </c>
+      <c r="C26" t="n">
+        <v>61.90872768234101</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-61.88796817000001</v>
+      </c>
+      <c r="E26" t="n">
+        <v>298218.6029490011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2280849520775489</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2278602007438934</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0002247513336554874</v>
+      </c>
+      <c r="E27" t="n">
+        <v>99.90146156876712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12.42738669</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>11.42738669</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.046744057659962</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="n">
+        <v>716.71904631</v>
+      </c>
+      <c r="C29" t="n">
+        <v>477.0180969090501</v>
+      </c>
+      <c r="D29" t="n">
+        <v>239.7009494009499</v>
+      </c>
+      <c r="E29" t="n">
+        <v>66.55580026301229</v>
+      </c>
+    </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -13301,40 +17054,499 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>235.8057919191919</v>
+      </c>
+      <c r="C3" t="n">
+        <v>224.75018471</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.05560720919189</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.31156248571683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>708.96963685</v>
+      </c>
+      <c r="C4" t="n">
+        <v>494.3564813</v>
+      </c>
+      <c r="D4" t="n">
+        <v>214.61315555</v>
+      </c>
+      <c r="E4" t="n">
+        <v>69.72886504652854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>552.64627445</v>
+      </c>
+      <c r="C5" t="n">
+        <v>543.4060508565919</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.240223593408018</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98.32800400172714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>22.72979698</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20.25008526000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.479711719999997</v>
+      </c>
+      <c r="E6" t="n">
+        <v>89.09048012095356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>25.84880042</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23.33828537</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.510515050000002</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90.28769223635794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>36.50224881000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33.60643067</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.89581814000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.06674044913451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>24.62999221999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20.97838237</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.651609849999993</v>
+      </c>
+      <c r="E9" t="n">
+        <v>85.17413315691257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4277495400000006</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.629122219999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-8.201372679999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2017.33056685461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9.140354770000002</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1232172399999998</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9.017137530000003</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.34805752184168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.56724672</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.29993795</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2673087699999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>82.94405299505109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.313953349999998</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9592404800000018</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3547128699999966</v>
+      </c>
+      <c r="E13" t="n">
+        <v>73.00415041371164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="n">
+        <v>18.02186493</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14.6979259</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.32393903</v>
+      </c>
+      <c r="E14" t="n">
+        <v>81.55607622790014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10.67038851</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.06693534</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.603453170000003</v>
+      </c>
+      <c r="E15" t="n">
+        <v>66.22940986054124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="n">
+        <v>24.80512617</v>
+      </c>
+      <c r="C16" t="n">
+        <v>23.08020027885001</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.724925891149994</v>
+      </c>
+      <c r="E16" t="n">
+        <v>93.04609104050368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="n">
+        <v>32.32873335</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30.39063361289997</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.938099737100028</v>
+      </c>
+      <c r="E17" t="n">
+        <v>94.00502421137998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n">
+        <v>63.29471812999999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>54.69853506479992</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8.596183065200073</v>
+      </c>
+      <c r="E18" t="n">
+        <v>86.418798725757</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.213645596333811</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.113082336333806</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1005632600000048</v>
+      </c>
+      <c r="E19" t="n">
+        <v>91.71395172496921</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.3977075969117835</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3830689461706807</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01463865074110277</v>
+      </c>
+      <c r="E20" t="n">
+        <v>96.31924286717867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.04090292080131368</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03222168000000003</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.008681240801313654</v>
+      </c>
+      <c r="E21" t="n">
+        <v>78.77598804378087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-59.13887666590794</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-14.1500862</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-44.98879046590795</v>
+      </c>
+      <c r="E22" t="n">
+        <v>23.92687686635949</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-125.7869908722982</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-34.8182984</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-90.96869247229824</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27.6803651622037</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-27.20313816942089</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.93563932</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-20.26749884942089</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25.49573242912234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01902402750142511</v>
+      </c>
+      <c r="C26" t="n">
+        <v>56.73567119650757</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-56.71664716900615</v>
+      </c>
+      <c r="E26" t="n">
+        <v>298231.6504339443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.987469320137801</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.968580485292421</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.01888883484537995</v>
+      </c>
+      <c r="E27" t="n">
+        <v>99.04960370185385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="n">
+        <v>11.25061235</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10.25061235</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8.888405083124209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="n">
+        <v>709.89907255</v>
+      </c>
+      <c r="C29" t="n">
+        <v>471.6414301339499</v>
+      </c>
+      <c r="D29" t="n">
+        <v>238.2576424160501</v>
+      </c>
+      <c r="E29" t="n">
+        <v>66.43781466565179</v>
+      </c>
+    </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -14910,40 +19122,499 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>215.7502898989899</v>
+      </c>
+      <c r="C3" t="n">
+        <v>205.6349514</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.11533849898987</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95.31155276605854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>699.03342996</v>
+      </c>
+      <c r="C4" t="n">
+        <v>491.9654229</v>
+      </c>
+      <c r="D4" t="n">
+        <v>207.06800706</v>
+      </c>
+      <c r="E4" t="n">
+        <v>70.37795358773488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>527.75404224</v>
+      </c>
+      <c r="C5" t="n">
+        <v>518.7637036014398</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.990338638560161</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98.2964908046177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>23.66004387</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21.35791734</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.302126530000002</v>
+      </c>
+      <c r="E6" t="n">
+        <v>90.26998198883727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>31.35526148999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>28.36206452</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.993196969999985</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90.45392438856045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>39.01345796</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35.6816542</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.33180376</v>
+      </c>
+      <c r="E8" t="n">
+        <v>91.45986043222301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>25.85112106</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22.27381398</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.577307080000004</v>
+      </c>
+      <c r="E9" t="n">
+        <v>86.16188802142415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1593466399999954</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.09650467</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-4.937158030000004</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3198.375987093387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.446092560000004</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.07404280000000019</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.372049760000004</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.359558237107893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9472041999999945</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7811500599999999</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1660541399999946</v>
+      </c>
+      <c r="E12" t="n">
+        <v>82.46902410272298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.273695310000001</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9332197400000002</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3404755700000006</v>
+      </c>
+      <c r="E13" t="n">
+        <v>73.26867993256563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17.00323777</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13.83341966</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.169818110000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>81.35756170161467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10.27311889</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.891082630000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.38203626</v>
+      </c>
+      <c r="E15" t="n">
+        <v>67.07877815672782</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="n">
+        <v>27.97322331000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>26.08429905179999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.888924258200017</v>
+      </c>
+      <c r="E16" t="n">
+        <v>93.24738433870525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="n">
+        <v>33.42724733000001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31.47683954580006</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.950407784199943</v>
+      </c>
+      <c r="E17" t="n">
+        <v>94.16521568484191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n">
+        <v>63.45845449000001</v>
+      </c>
+      <c r="C18" t="n">
+        <v>54.84002445405</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8.618430035950013</v>
+      </c>
+      <c r="E18" t="n">
+        <v>86.41878358807472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.614473213102153</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.454040546749495</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1604326663526578</v>
+      </c>
+      <c r="E19" t="n">
+        <v>90.06284743217311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5589304666722362</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.519258456672231</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0396720100000052</v>
+      </c>
+      <c r="E20" t="n">
+        <v>92.90215646389709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0398848530236536</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03141987999999996</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.008464973023653649</v>
+      </c>
+      <c r="E21" t="n">
+        <v>78.77647181341368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-55.66043041752017</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-13.31780302</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-42.34262739752018</v>
+      </c>
+      <c r="E22" t="n">
+        <v>23.92687753238783</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-133.5544357616464</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-36.96835571</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-96.58608005164641</v>
+      </c>
+      <c r="E23" t="n">
+        <v>27.68036531259594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-16.34672924854396</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.167718219999999</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-12.17901102854396</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25.49573163311081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01854985955647249</v>
+      </c>
+      <c r="C26" t="n">
+        <v>55.32385740055092</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-55.30530754099445</v>
+      </c>
+      <c r="E26" t="n">
+        <v>298244.0769005559</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1571552392564013</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1570339290879159</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0001213101684854057</v>
+      </c>
+      <c r="E27" t="n">
+        <v>99.92280870236372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="n">
+        <v>11.10870583</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10.10870583</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9.001948699545318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="n">
+        <v>699.88363021</v>
+      </c>
+      <c r="C29" t="n">
+        <v>469.8370338241</v>
+      </c>
+      <c r="D29" t="n">
+        <v>230.0465963859</v>
+      </c>
+      <c r="E29" t="n">
+        <v>67.1307362458421</v>
+      </c>
+    </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:9">
